--- a/test_契約管理/已完成/test_契約管理_随時対応一覧.xlsx
+++ b/test_契約管理/已完成/test_契約管理_随時対応一覧.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="27150" windowHeight="13650" tabRatio="758" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27150" windowHeight="13650" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="702">
   <si>
     <t>SQL</t>
   </si>
@@ -1508,7 +1508,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <charset val="128"/>
+        <family val="2"/>
       </rPr>
       <t>法人のご要望</t>
     </r>
@@ -2159,15 +2159,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2201,7 +2198,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2215,113 +2212,44 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -2332,83 +2260,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -2421,7 +2281,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2433,16 +2293,22 @@
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2457,19 +2323,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2481,7 +2347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2493,7 +2359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
+        <fgColor theme="8" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2503,164 +2369,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2701,302 +2411,60 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3040,33 +2508,33 @@
     <xf numFmtId="49" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3075,97 +2543,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="33">
+    <cellStyle name="ハイパーリンク 2" xfId="14"/>
+    <cellStyle name="ハイパーリンク 2 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="8"/>
+    <cellStyle name="標準 2 2" xfId="6"/>
+    <cellStyle name="標準 2 2 2" xfId="13"/>
+    <cellStyle name="標準 2 3" xfId="15"/>
+    <cellStyle name="標準 2_大興電子様向け）単価マスタ管理システム（ネタ)fukunaga" xfId="7"/>
+    <cellStyle name="標準 26" xfId="4"/>
+    <cellStyle name="標準 3" xfId="2"/>
+    <cellStyle name="標準 3 2" xfId="16"/>
+    <cellStyle name="標準 4" xfId="9"/>
+    <cellStyle name="標準 4 2" xfId="5"/>
+    <cellStyle name="標準 5" xfId="11"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="ハイパーリンク 2 2" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="標準 3" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
-    <cellStyle name="差" xfId="9" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8"/>
-    <cellStyle name="百分比" xfId="13" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="標準 26" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="20" builtinId="11"/>
-    <cellStyle name="标题" xfId="21" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="22" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="23" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="24" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="26" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27" builtinId="44"/>
-    <cellStyle name="输出" xfId="28" builtinId="21"/>
-    <cellStyle name="计算" xfId="29" builtinId="22"/>
-    <cellStyle name="標準 4 2" xfId="30"/>
-    <cellStyle name="检查单元格" xfId="31" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="32" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="33" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="34" builtinId="24"/>
-    <cellStyle name="汇总" xfId="35" builtinId="25"/>
-    <cellStyle name="好" xfId="36" builtinId="26"/>
-    <cellStyle name="標準 2 2" xfId="37"/>
-    <cellStyle name="适中" xfId="38" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="39" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="40" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="41" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="42" builtinId="31"/>
-    <cellStyle name="標準 2_大興電子様向け）単価マスタ管理システム（ネタ)fukunaga" xfId="43"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="44" builtinId="34"/>
-    <cellStyle name="標準 2" xfId="45"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="46" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="47" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="48" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="49" builtinId="42"/>
-    <cellStyle name="標準 4" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="51" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="52" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="53"/>
-    <cellStyle name="標準 5" xfId="54"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="55" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="56" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="57" builtinId="49"/>
-    <cellStyle name="常规 2 3" xfId="58"/>
-    <cellStyle name="標準 2 2 2" xfId="59"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="61" builtinId="52"/>
-    <cellStyle name="ハイパーリンク 2" xfId="62"/>
-    <cellStyle name="標準 2 3" xfId="63"/>
-    <cellStyle name="標準 3 2" xfId="64"/>
-    <cellStyle name="常规 2" xfId="65"/>
-    <cellStyle name="常规 3" xfId="66"/>
-    <cellStyle name="常规 3 2" xfId="67"/>
-    <cellStyle name="常规 4" xfId="68"/>
-    <cellStyle name="常规 5" xfId="69"/>
-    <cellStyle name="常规 6 2" xfId="70"/>
-    <cellStyle name="常规 7" xfId="71"/>
-    <cellStyle name="常规 8" xfId="72"/>
-    <cellStyle name="超链接 2" xfId="73"/>
-    <cellStyle name="超链接 2 2" xfId="74"/>
-    <cellStyle name="超链接 3" xfId="75"/>
-    <cellStyle name="桁区切り 2" xfId="76"/>
-    <cellStyle name="桁区切り 2 2" xfId="77"/>
-    <cellStyle name="千位分隔 2" xfId="78"/>
-    <cellStyle name="千位分隔 3" xfId="79"/>
-    <cellStyle name="千位分隔 3 2" xfId="80"/>
+    <cellStyle name="常规 2" xfId="17"/>
+    <cellStyle name="常规 2 2" xfId="10"/>
+    <cellStyle name="常规 2 3" xfId="12"/>
+    <cellStyle name="常规 3" xfId="18"/>
+    <cellStyle name="常规 3 2" xfId="19"/>
+    <cellStyle name="常规 4" xfId="20"/>
+    <cellStyle name="常规 5" xfId="21"/>
+    <cellStyle name="常规 6" xfId="3"/>
+    <cellStyle name="常规 6 2" xfId="22"/>
+    <cellStyle name="常规 7" xfId="23"/>
+    <cellStyle name="常规 8" xfId="24"/>
+    <cellStyle name="超链接 2" xfId="25"/>
+    <cellStyle name="超链接 2 2" xfId="26"/>
+    <cellStyle name="超链接 3" xfId="27"/>
+    <cellStyle name="桁区切り 2" xfId="28"/>
+    <cellStyle name="桁区切り 2 2" xfId="29"/>
+    <cellStyle name="千位分隔 2" xfId="30"/>
+    <cellStyle name="千位分隔 3" xfId="31"/>
+    <cellStyle name="千位分隔 3 2" xfId="32"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFF6F5C5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3177,7 +2625,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="00F6F5C5"/>
+      <color rgb="FFF6F5C5"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3467,16 +2915,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL161"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D167" sqref="D167"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3484,18 +2932,18 @@
     <col min="3" max="4" width="17.375" style="22" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.675" customWidth="1"/>
-    <col min="12" max="12" width="13.2333333333333" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="12" width="13.25" customWidth="1"/>
     <col min="13" max="13" width="12.5" customWidth="1"/>
-    <col min="14" max="14" width="18.525" customWidth="1"/>
-    <col min="15" max="15" width="12.7916666666667" customWidth="1"/>
+    <col min="14" max="14" width="18.5" customWidth="1"/>
+    <col min="15" max="15" width="12.75" customWidth="1"/>
     <col min="16" max="16" width="10.125"/>
     <col min="18" max="18" width="10.125"/>
     <col min="27" max="27" width="10.125"/>
     <col min="35" max="35" width="10.125"/>
     <col min="37" max="37" width="10.125"/>
-    <col min="38" max="38" width="15.5833333333333" customWidth="1"/>
-    <col min="39" max="39" width="18.0833333333333" customWidth="1"/>
+    <col min="38" max="38" width="15.625" customWidth="1"/>
+    <col min="39" max="39" width="18.125" customWidth="1"/>
     <col min="41" max="43" width="10.125"/>
     <col min="45" max="46" width="10.125"/>
     <col min="49" max="49" width="10.125"/>
@@ -3506,321 +2954,255 @@
     <col min="135" max="135" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="1" spans="1:2" ht="14.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="2" spans="1:2" ht="14.25">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="3" spans="1:2" ht="14.25">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="4" spans="1:2" ht="14.25">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="5" spans="1:2" ht="14.25">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="6" spans="1:2" ht="14.25">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="7" spans="1:2" ht="14.25">
       <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" customFormat="1" spans="2:4">
+    </row>
+    <row r="8" spans="1:2">
       <c r="B8" s="23"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="9" spans="1:2" ht="14.25">
       <c r="A9" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="11" spans="1:2" ht="14.25">
       <c r="A11" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="2:2">
+    </row>
+    <row r="12" spans="1:2">
       <c r="B12" s="23"/>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:4">
+    <row r="13" spans="1:2" ht="14.25">
       <c r="A13" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="14" spans="1:2" ht="14.25">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="15" spans="1:2" ht="14.25">
       <c r="A15" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="16" spans="1:2" ht="14.25">
       <c r="A16" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="17" spans="1:2" ht="14.25">
       <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="18" spans="1:2" ht="14.25">
       <c r="A18" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="19" spans="1:2" ht="14.25">
       <c r="A19" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="21" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="21" spans="1:2" ht="14.25">
       <c r="A21" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-    </row>
-    <row r="22" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="22" spans="1:2" ht="14.25">
       <c r="A22" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="23" spans="1:2" ht="14.25">
       <c r="A23" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" customFormat="1" spans="2:4">
+    </row>
+    <row r="24" spans="1:2">
       <c r="B24" s="23"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-    </row>
-    <row r="25" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="25" spans="1:2" ht="14.25">
       <c r="A25" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-    </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="26" spans="1:2" ht="14.25">
       <c r="A26" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" customFormat="1" spans="2:4">
+    </row>
+    <row r="27" spans="1:2">
       <c r="B27" s="23"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-    </row>
-    <row r="28" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="28" spans="1:2" ht="14.25">
       <c r="A28" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="29" spans="1:2" ht="14.25">
       <c r="A29" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-    </row>
-    <row r="30" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="30" spans="1:2" ht="14.25">
       <c r="A30" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-    </row>
-    <row r="31" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="31" spans="1:2" ht="14.25">
       <c r="A31" s="13"/>
       <c r="B31" s="23"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-    </row>
-    <row r="32" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="32" spans="1:2" ht="14.25">
       <c r="A32" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-    </row>
-    <row r="33" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="33" spans="1:2" ht="14.25">
       <c r="A33" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-    </row>
-    <row r="34" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="34" spans="1:2" ht="14.25">
       <c r="A34" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="35" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="35" spans="1:2" ht="14.25">
       <c r="A35" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:2">
+    </row>
+    <row r="36" spans="1:2" ht="14.25">
       <c r="A36" s="13" t="s">
         <v>0</v>
       </c>
@@ -3828,186 +3210,144 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="14.25" spans="1:4">
+    <row r="37" spans="1:2" ht="14.25">
       <c r="A37" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-    </row>
-    <row r="38" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="38" spans="1:2" ht="14.25">
       <c r="A38" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-    </row>
-    <row r="39" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="39" spans="1:2" ht="14.25">
       <c r="A39" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-    </row>
-    <row r="40" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="40" spans="1:2" ht="14.25">
       <c r="A40" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-    </row>
-    <row r="41" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="41" spans="1:2" ht="14.25">
       <c r="A41" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-    </row>
-    <row r="42" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="42" spans="1:2" ht="14.25">
       <c r="A42" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-    </row>
-    <row r="43" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="43" spans="1:2" ht="14.25">
       <c r="A43" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-    </row>
-    <row r="44" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="44" spans="1:2" ht="14.25">
       <c r="A44" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-    </row>
-    <row r="45" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="45" spans="1:2" ht="14.25">
       <c r="A45" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-    </row>
-    <row r="46" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="46" spans="1:2" ht="14.25">
       <c r="A46" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-    </row>
-    <row r="47" customFormat="1" spans="3:4">
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-    </row>
-    <row r="48" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="48" spans="1:2" ht="14.25">
       <c r="A48" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-    </row>
-    <row r="49" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="49" spans="1:8" ht="14.25">
       <c r="A49" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B49" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-    </row>
-    <row r="50" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="50" spans="1:8" ht="14.25">
       <c r="A50" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-    </row>
-    <row r="51" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="51" spans="1:8" ht="14.25">
       <c r="A51" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-    </row>
-    <row r="52" customFormat="1" spans="1:4">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="23"/>
       <c r="B52" s="23"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-    </row>
-    <row r="53" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="53" spans="1:8" ht="14.25">
       <c r="A53" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-    </row>
-    <row r="54" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="54" spans="1:8" ht="14.25">
       <c r="A54" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-    </row>
-    <row r="55" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="55" spans="1:8" ht="14.25">
       <c r="A55" s="24"/>
       <c r="B55" s="23"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-    </row>
-    <row r="56" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A56" s="13" t="s">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14.25">
+      <c r="A56" s="13"/>
       <c r="B56" s="23" t="s">
         <v>46</v>
       </c>
@@ -4018,7 +3358,7 @@
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
     </row>
-    <row r="57" customFormat="1" ht="14.25" spans="1:8">
+    <row r="57" spans="1:8" ht="14.25">
       <c r="A57" s="13" t="s">
         <v>0</v>
       </c>
@@ -4032,7 +3372,7 @@
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" customFormat="1" ht="14.25" spans="1:8">
+    <row r="58" spans="1:8" ht="14.25">
       <c r="A58" s="13" t="s">
         <v>0</v>
       </c>
@@ -4046,7 +3386,7 @@
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
     </row>
-    <row r="59" customFormat="1" ht="14.25" spans="1:8">
+    <row r="59" spans="1:8" ht="14.25">
       <c r="A59" s="13" t="s">
         <v>0</v>
       </c>
@@ -4060,7 +3400,7 @@
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="60" customFormat="1" ht="14.25" spans="1:8">
+    <row r="60" spans="1:8" ht="14.25">
       <c r="A60" s="13" t="s">
         <v>0</v>
       </c>
@@ -4074,44 +3414,36 @@
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
     </row>
-    <row r="61" customFormat="1" ht="14.25" spans="1:4">
+    <row r="61" spans="1:8" ht="14.25">
       <c r="A61" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B61" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-    </row>
-    <row r="62" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="62" spans="1:8" ht="14.25">
       <c r="A62" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B62" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-    </row>
-    <row r="63" customFormat="1" ht="14.25" spans="1:4">
+    </row>
+    <row r="63" spans="1:8" ht="14.25">
       <c r="A63" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-    </row>
-    <row r="64" customFormat="1" spans="2:4">
+    </row>
+    <row r="64" spans="1:8">
       <c r="B64" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-    </row>
-    <row r="65" customFormat="1" spans="2:19">
+    </row>
+    <row r="65" spans="1:75">
       <c r="B65" s="15" t="s">
         <v>56</v>
       </c>
@@ -4167,7 +3499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" customFormat="1" spans="2:19">
+    <row r="66" spans="1:75">
       <c r="B66" s="18">
         <v>1</v>
       </c>
@@ -4223,7 +3555,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" customFormat="1" spans="2:19">
+    <row r="67" spans="1:75">
       <c r="B67" s="18">
         <v>2</v>
       </c>
@@ -4279,7 +3611,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" customFormat="1" spans="2:19">
+    <row r="68" spans="1:75">
       <c r="B68" s="18">
         <v>3</v>
       </c>
@@ -4335,7 +3667,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" customFormat="1" spans="2:19">
+    <row r="69" spans="1:75">
       <c r="B69" s="18">
         <v>4</v>
       </c>
@@ -4391,7 +3723,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" customFormat="1" spans="2:19">
+    <row r="70" spans="1:75">
       <c r="B70" s="18">
         <v>5</v>
       </c>
@@ -4447,7 +3779,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" customFormat="1" spans="2:19">
+    <row r="71" spans="1:75">
       <c r="B71" s="18">
         <v>6</v>
       </c>
@@ -4503,7 +3835,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" customFormat="1" spans="2:19">
+    <row r="72" spans="1:75">
       <c r="B72" s="18">
         <v>7</v>
       </c>
@@ -4559,11 +3891,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" customFormat="1" spans="3:4">
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-    </row>
-    <row r="74" ht="14.25" spans="1:75">
+    <row r="74" spans="1:75" ht="14.25">
       <c r="A74" s="13" t="s">
         <v>53</v>
       </c>
@@ -4755,7 +4083,7 @@
       <c r="BV75" s="23"/>
       <c r="BW75" s="23"/>
     </row>
-    <row r="76" spans="1:74">
+    <row r="76" spans="1:75">
       <c r="A76" s="31"/>
       <c r="B76" s="16" t="s">
         <v>57</v>
@@ -4977,7 +4305,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:74">
+    <row r="77" spans="1:75">
       <c r="A77" s="23"/>
       <c r="B77" s="18" t="s">
         <v>74</v>
@@ -5025,7 +4353,7 @@
         <v>75</v>
       </c>
       <c r="Q77" s="18">
-        <v>139.7671648</v>
+        <v>139.76716479999999</v>
       </c>
       <c r="R77" s="18">
         <v>35.7461178</v>
@@ -5199,7 +4527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:74">
+    <row r="78" spans="1:75">
       <c r="A78" s="23"/>
       <c r="B78" s="18" t="s">
         <v>74</v>
@@ -5421,7 +4749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:74">
+    <row r="79" spans="1:75">
       <c r="A79" s="23"/>
       <c r="B79" s="18" t="s">
         <v>74</v>
@@ -5643,7 +4971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:74">
+    <row r="80" spans="1:75">
       <c r="A80" s="23"/>
       <c r="B80" s="18" t="s">
         <v>74</v>
@@ -6309,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" ht="14.25" spans="1:7">
+    <row r="84" spans="1:74" ht="14.25">
       <c r="A84" s="13" t="s">
         <v>53</v>
       </c>
@@ -6322,7 +5650,7 @@
       <c r="F84" s="23"/>
       <c r="G84" s="23"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:74">
       <c r="A85" s="23"/>
       <c r="B85" s="14" t="s">
         <v>218</v>
@@ -6339,7 +5667,7 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:74">
       <c r="A86" s="23"/>
       <c r="B86" s="16" t="s">
         <v>57</v>
@@ -6365,7 +5693,7 @@
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:74">
       <c r="A87" s="23"/>
       <c r="B87" s="18" t="s">
         <v>74</v>
@@ -6389,7 +5717,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="2:8">
+    <row r="88" spans="1:74">
       <c r="B88" s="18" t="s">
         <v>74</v>
       </c>
@@ -6412,7 +5740,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="2:8">
+    <row r="89" spans="1:74">
       <c r="B89" s="18" t="s">
         <v>74</v>
       </c>
@@ -6435,7 +5763,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:74">
       <c r="A90" s="12"/>
       <c r="B90" s="18" t="s">
         <v>74</v>
@@ -6459,7 +5787,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="1:74">
       <c r="B91" s="18" t="s">
         <v>87</v>
       </c>
@@ -6484,7 +5812,7 @@
       <c r="I91" s="23"/>
       <c r="J91" s="23"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:74">
       <c r="A92" s="23"/>
       <c r="B92" s="18" t="s">
         <v>74</v>
@@ -6514,7 +5842,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:74">
       <c r="A93" s="23"/>
       <c r="B93" s="18" t="s">
         <v>74</v>
@@ -6541,7 +5869,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:74">
       <c r="A94" s="23"/>
       <c r="B94" s="18" t="s">
         <v>74</v>
@@ -6568,7 +5896,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:74">
       <c r="A95" s="23"/>
       <c r="B95" s="18" t="s">
         <v>74</v>
@@ -6595,7 +5923,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:74">
       <c r="A96" s="23"/>
       <c r="B96" s="18" t="s">
         <v>87</v>
@@ -6622,7 +5950,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
     </row>
-    <row r="98" ht="14.25" spans="1:40">
+    <row r="98" spans="1:142" ht="14.25">
       <c r="A98" s="13" t="s">
         <v>53</v>
       </c>
@@ -6668,7 +5996,7 @@
       <c r="AM98" s="23"/>
       <c r="AN98" s="23"/>
     </row>
-    <row r="99" spans="1:33">
+    <row r="99" spans="1:142">
       <c r="A99" s="12"/>
       <c r="B99" s="14" t="s">
         <v>238</v>
@@ -6705,7 +6033,7 @@
       <c r="AF99" s="12"/>
       <c r="AG99" s="12"/>
     </row>
-    <row r="100" spans="1:33">
+    <row r="100" spans="1:142">
       <c r="A100" s="12"/>
       <c r="B100" s="15" t="s">
         <v>56</v>
@@ -6804,7 +6132,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="101" spans="1:33">
+    <row r="101" spans="1:142">
       <c r="A101" s="12"/>
       <c r="B101" s="18" t="s">
         <v>184</v>
@@ -6903,7 +6231,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:33">
+    <row r="102" spans="1:142">
       <c r="A102" s="12"/>
       <c r="B102" s="18" t="s">
         <v>191</v>
@@ -7002,7 +6330,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:33">
+    <row r="103" spans="1:142">
       <c r="A103" s="12"/>
       <c r="B103" s="18" t="s">
         <v>198</v>
@@ -7101,7 +6429,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:33">
+    <row r="104" spans="1:142">
       <c r="A104" s="12"/>
       <c r="B104" s="18" t="s">
         <v>205</v>
@@ -7200,7 +6528,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:33">
+    <row r="105" spans="1:142">
       <c r="A105" s="12"/>
       <c r="B105" s="18" t="s">
         <v>211</v>
@@ -7299,11 +6627,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" customFormat="1" spans="3:4">
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-    </row>
-    <row r="107" ht="14.25" spans="1:8">
+    <row r="107" spans="1:142" ht="14.25">
       <c r="A107" s="13" t="s">
         <v>53</v>
       </c>
@@ -7317,7 +6641,7 @@
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:142">
       <c r="A108" s="12"/>
       <c r="B108" s="14" t="s">
         <v>331</v>
@@ -9455,7 +8779,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="115" ht="14.25" spans="1:2">
+    <row r="115" spans="1:142" ht="14.25">
       <c r="A115" s="13" t="s">
         <v>53</v>
       </c>
@@ -9463,13 +8787,13 @@
         <v>495</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:142">
       <c r="A116" s="12"/>
       <c r="B116" s="14" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="117" spans="2:33">
+    <row r="117" spans="1:142">
       <c r="B117" s="15" t="s">
         <v>56</v>
       </c>
@@ -9567,7 +8891,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="118" spans="2:33">
+    <row r="118" spans="1:142">
       <c r="B118" s="18">
         <v>1</v>
       </c>
@@ -9665,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:33">
+    <row r="119" spans="1:142">
       <c r="B119" s="18" t="s">
         <v>191</v>
       </c>
@@ -9763,7 +9087,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="2:33">
+    <row r="120" spans="1:142">
       <c r="B120" s="18" t="s">
         <v>198</v>
       </c>
@@ -9861,7 +9185,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="2:33">
+    <row r="121" spans="1:142">
       <c r="B121" s="18" t="s">
         <v>205</v>
       </c>
@@ -9959,11 +9283,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="122" customFormat="1" spans="3:4">
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-    </row>
-    <row r="123" ht="14.25" spans="1:2">
+    <row r="123" spans="1:142" ht="14.25">
       <c r="A123" s="13" t="s">
         <v>53</v>
       </c>
@@ -9971,12 +9291,12 @@
         <v>548</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
+    <row r="124" spans="1:142">
       <c r="B124" s="14" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="125" spans="2:28">
+    <row r="125" spans="1:142">
       <c r="B125" s="15" t="s">
         <v>56</v>
       </c>
@@ -10059,7 +9379,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="126" spans="2:28">
+    <row r="126" spans="1:142">
       <c r="B126" s="18">
         <v>1</v>
       </c>
@@ -10142,7 +9462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:28">
+    <row r="127" spans="1:142">
       <c r="B127" s="18">
         <v>2</v>
       </c>
@@ -10225,7 +9545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" customFormat="1" spans="2:28">
+    <row r="128" spans="1:142">
       <c r="B128" s="18" t="s">
         <v>198</v>
       </c>
@@ -10308,7 +9628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" customFormat="1" spans="2:28">
+    <row r="129" spans="1:53">
       <c r="B129" s="18" t="s">
         <v>205</v>
       </c>
@@ -10391,7 +9711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" ht="14.25" spans="1:2">
+    <row r="133" spans="1:53" ht="14.25">
       <c r="A133" s="13" t="s">
         <v>53</v>
       </c>
@@ -10399,12 +9719,12 @@
         <v>567</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="1:53">
       <c r="B134" s="14" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="135" spans="2:53">
+    <row r="135" spans="1:53" ht="14.25">
       <c r="B135" s="15" t="s">
         <v>56</v>
       </c>
@@ -10560,15 +9880,15 @@
       </c>
       <c r="BA135" s="35"/>
     </row>
-    <row r="136" spans="2:53">
+    <row r="136" spans="1:53" ht="14.25">
       <c r="B136" s="18">
         <v>15</v>
       </c>
       <c r="C136" s="27">
-        <v>43160.5594097222</v>
+        <v>43160.559409722198</v>
       </c>
       <c r="D136" s="27">
-        <v>43160.5594097222</v>
+        <v>43160.559409722198</v>
       </c>
       <c r="E136" s="18">
         <v>0</v>
@@ -10716,15 +10036,15 @@
       </c>
       <c r="BA136" s="35"/>
     </row>
-    <row r="137" spans="2:53">
+    <row r="137" spans="1:53" ht="14.25">
       <c r="B137" s="18">
         <v>16</v>
       </c>
       <c r="C137" s="27">
-        <v>43160.5611226852</v>
+        <v>43160.561122685198</v>
       </c>
       <c r="D137" s="27">
-        <v>43160.5611226852</v>
+        <v>43160.561122685198</v>
       </c>
       <c r="E137" s="18">
         <v>0</v>
@@ -10872,15 +10192,15 @@
       </c>
       <c r="BA137" s="35"/>
     </row>
-    <row r="138" spans="2:53">
+    <row r="138" spans="1:53" ht="14.25">
       <c r="B138" s="18">
         <v>18</v>
       </c>
       <c r="C138" s="27">
-        <v>43160.5626157407</v>
+        <v>43160.562615740702</v>
       </c>
       <c r="D138" s="27">
-        <v>43160.5626157407</v>
+        <v>43160.562615740702</v>
       </c>
       <c r="E138" s="18">
         <v>0</v>
@@ -11028,15 +10348,15 @@
       </c>
       <c r="BA138" s="35"/>
     </row>
-    <row r="139" spans="2:53">
+    <row r="139" spans="1:53" ht="14.25">
       <c r="B139" s="18">
         <v>39</v>
       </c>
       <c r="C139" s="27">
-        <v>43200.4988425926</v>
+        <v>43200.498842592599</v>
       </c>
       <c r="D139" s="27">
-        <v>43200.4988425926</v>
+        <v>43200.498842592599</v>
       </c>
       <c r="E139" s="18">
         <v>0</v>
@@ -11184,15 +10504,15 @@
       </c>
       <c r="BA139" s="35"/>
     </row>
-    <row r="140" spans="2:53">
+    <row r="140" spans="1:53" ht="14.25">
       <c r="B140" s="18">
         <v>40</v>
       </c>
       <c r="C140" s="27">
-        <v>43200.5036921296</v>
+        <v>43200.503692129598</v>
       </c>
       <c r="D140" s="27">
-        <v>43200.5036921296</v>
+        <v>43200.503692129598</v>
       </c>
       <c r="E140" s="18">
         <v>0</v>
@@ -11340,15 +10660,15 @@
       </c>
       <c r="BA140" s="35"/>
     </row>
-    <row r="141" spans="2:53">
+    <row r="141" spans="1:53" ht="14.25">
       <c r="B141" s="18">
         <v>41</v>
       </c>
       <c r="C141" s="27">
-        <v>43200.5039351852</v>
+        <v>43200.503935185203</v>
       </c>
       <c r="D141" s="27">
-        <v>43200.5039351852</v>
+        <v>43200.503935185203</v>
       </c>
       <c r="E141" s="18">
         <v>0</v>
@@ -11496,15 +10816,15 @@
       </c>
       <c r="BA141" s="35"/>
     </row>
-    <row r="142" spans="2:53">
+    <row r="142" spans="1:53" ht="14.25">
       <c r="B142" s="18">
         <v>56</v>
       </c>
       <c r="C142" s="27">
-        <v>43208.3265393519</v>
+        <v>43208.326539351903</v>
       </c>
       <c r="D142" s="27">
-        <v>43208.3265393519</v>
+        <v>43208.326539351903</v>
       </c>
       <c r="E142" s="18">
         <v>0</v>
@@ -11652,15 +10972,15 @@
       </c>
       <c r="BA142" s="35"/>
     </row>
-    <row r="143" spans="2:53">
+    <row r="143" spans="1:53" ht="14.25">
       <c r="B143" s="18">
         <v>62</v>
       </c>
       <c r="C143" s="27">
-        <v>43209.2697569444</v>
+        <v>43209.269756944399</v>
       </c>
       <c r="D143" s="27">
-        <v>43210.2938425926</v>
+        <v>43210.293842592597</v>
       </c>
       <c r="E143" s="18">
         <v>0</v>
@@ -11808,12 +11128,12 @@
       </c>
       <c r="BA143" s="35"/>
     </row>
-    <row r="144" spans="37:39">
+    <row r="144" spans="1:53">
       <c r="AK144" s="34"/>
       <c r="AL144" s="34"/>
       <c r="AM144" s="34"/>
     </row>
-    <row r="151" ht="14.25" spans="1:2">
+    <row r="151" spans="1:95" ht="14.25">
       <c r="A151" s="13" t="s">
         <v>53</v>
       </c>
@@ -11821,12 +11141,12 @@
         <v>612</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
+    <row r="152" spans="1:95">
       <c r="B152" s="14" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="153" spans="2:95">
+    <row r="153" spans="1:95">
       <c r="B153" s="15" t="s">
         <v>56</v>
       </c>
@@ -12110,15 +11430,15 @@
         <v>649</v>
       </c>
     </row>
-    <row r="154" spans="2:95">
+    <row r="154" spans="1:95">
       <c r="B154" s="18">
         <v>5</v>
       </c>
       <c r="C154" s="27">
-        <v>43211.3841666667</v>
+        <v>43211.384166666699</v>
       </c>
       <c r="D154" s="27">
-        <v>43211.4412847222</v>
+        <v>43211.441284722197</v>
       </c>
       <c r="E154" s="18">
         <v>0</v>
@@ -12394,7 +11714,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="155" spans="2:95">
+    <row r="155" spans="1:95">
       <c r="B155" s="18">
         <v>6</v>
       </c>
@@ -12402,7 +11722,7 @@
         <v>43213.1784259259</v>
       </c>
       <c r="D155" s="27">
-        <v>43213.4128125</v>
+        <v>43213.412812499999</v>
       </c>
       <c r="E155" s="18">
         <v>0</v>
@@ -12678,15 +11998,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="156" spans="2:95">
+    <row r="156" spans="1:95">
       <c r="B156" s="18">
         <v>7</v>
       </c>
       <c r="C156" s="27">
-        <v>43213.3183912037</v>
+        <v>43213.318391203698</v>
       </c>
       <c r="D156" s="27">
-        <v>43213.3183912037</v>
+        <v>43213.318391203698</v>
       </c>
       <c r="E156" s="18">
         <v>0</v>
@@ -12962,15 +12282,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="157" spans="2:95">
+    <row r="157" spans="1:95">
       <c r="B157" s="18">
         <v>8</v>
       </c>
       <c r="C157" s="27">
-        <v>43213.3396759259</v>
+        <v>43213.339675925898</v>
       </c>
       <c r="D157" s="27">
-        <v>43213.3396759259</v>
+        <v>43213.339675925898</v>
       </c>
       <c r="E157" s="18">
         <v>0</v>
@@ -13246,15 +12566,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="158" spans="2:95">
+    <row r="158" spans="1:95">
       <c r="B158" s="18">
         <v>9</v>
       </c>
       <c r="C158" s="27">
-        <v>43213.3396759259</v>
+        <v>43213.339675925898</v>
       </c>
       <c r="D158" s="27">
-        <v>43213.3396759259</v>
+        <v>43213.339675925898</v>
       </c>
       <c r="E158" s="18">
         <v>0</v>
@@ -13530,15 +12850,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="159" spans="2:95">
+    <row r="159" spans="1:95">
       <c r="B159" s="18">
         <v>10</v>
       </c>
       <c r="C159" s="27">
-        <v>43213.3815393519</v>
+        <v>43213.381539351903</v>
       </c>
       <c r="D159" s="27">
-        <v>43213.3815393519</v>
+        <v>43213.381539351903</v>
       </c>
       <c r="E159" s="18">
         <v>0</v>
@@ -13814,15 +13134,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="160" spans="2:95">
+    <row r="160" spans="1:95">
       <c r="B160" s="18">
         <v>11</v>
       </c>
       <c r="C160" s="27">
-        <v>43213.401400463</v>
+        <v>43213.401400463001</v>
       </c>
       <c r="D160" s="27">
-        <v>43213.401400463</v>
+        <v>43213.401400463001</v>
       </c>
       <c r="E160" s="18">
         <v>0</v>
@@ -14103,10 +13423,10 @@
         <v>12</v>
       </c>
       <c r="C161" s="27">
-        <v>43213.401400463</v>
+        <v>43213.401400463001</v>
       </c>
       <c r="D161" s="27">
-        <v>43213.4074305556</v>
+        <v>43213.407430555599</v>
       </c>
       <c r="E161" s="18">
         <v>0</v>
@@ -14383,35 +13703,34 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="AM145">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="$A1:$XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O113" r:id="rId1" display="lyy@shequchina.cn"/>
+    <hyperlink ref="O113" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.875" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
@@ -14419,67 +13738,58 @@
     <col min="4" max="4" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="14.25" spans="1:3">
+    <row r="1" spans="1:3" ht="14.25">
       <c r="A1" s="21" t="s">
         <v>657</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" customFormat="1" spans="1:3">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="20"/>
       <c r="B2" s="12"/>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" customFormat="1" spans="1:3">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="20"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="5" customFormat="1" ht="14.25" spans="1:3">
+    </row>
+    <row r="5" spans="1:3" ht="14.25">
       <c r="A5" s="21" t="s">
         <v>659</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>660</v>
       </c>
-      <c r="C5" s="20"/>
-    </row>
-    <row r="6" customFormat="1" ht="14.25" spans="1:3">
+    </row>
+    <row r="6" spans="1:3" ht="14.25">
       <c r="A6" s="21" t="s">
         <v>659</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>661</v>
       </c>
-      <c r="C6" s="20"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:3">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="20"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="20"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:3">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="20"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="20"/>
-    </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:3">
+    </row>
+    <row r="9" spans="1:3" ht="14.25">
       <c r="A9" s="21" t="s">
         <v>659</v>
       </c>
       <c r="B9" t="s">
         <v>662</v>
       </c>
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:3">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="20"/>
-      <c r="C10" s="20"/>
-    </row>
-    <row r="11" customFormat="1" ht="14.25" spans="1:3">
+    </row>
+    <row r="11" spans="1:3" ht="14.25">
       <c r="A11" s="21" t="s">
         <v>663</v>
       </c>
@@ -14490,29 +13800,30 @@
         <v>665</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:3">
+    <row r="12" spans="1:3" ht="14.25">
       <c r="A12" s="21" t="s">
         <v>659</v>
       </c>
       <c r="B12" t="s">
         <v>666</v>
       </c>
-      <c r="C12" s="20"/>
-    </row>
-    <row r="13" customFormat="1" spans="1:3">
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="20"/>
-      <c r="C13" s="20"/>
-    </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:2">
+    </row>
+    <row r="14" spans="1:3" ht="14.25">
       <c r="A14" s="21" t="s">
         <v>667</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="15" customFormat="1"/>
-    <row r="16" ht="14.25" spans="1:3">
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:3" ht="14.25">
       <c r="A16" s="21" t="s">
         <v>657</v>
       </c>
@@ -14521,10 +13832,10 @@
       </c>
       <c r="C16"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="1:3">
       <c r="C17"/>
     </row>
-    <row r="18" ht="14.25" spans="1:2">
+    <row r="18" spans="1:3" ht="14.25">
       <c r="A18" s="21" t="s">
         <v>659</v>
       </c>
@@ -14532,7 +13843,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:2">
+    <row r="19" spans="1:3" ht="14.25">
       <c r="A19" s="21" t="s">
         <v>659</v>
       </c>
@@ -14540,7 +13851,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:2">
+    <row r="20" spans="1:3" ht="14.25">
       <c r="A20" s="21" t="s">
         <v>667</v>
       </c>
@@ -14548,23 +13859,25 @@
         <v>671</v>
       </c>
     </row>
-    <row r="24" customFormat="1" ht="14.25" spans="1:2">
+    <row r="24" spans="1:3" ht="14.25">
       <c r="A24" s="21" t="s">
         <v>659</v>
       </c>
       <c r="B24" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="25" customFormat="1" ht="14.25" spans="1:2">
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:3" ht="14.25">
       <c r="A25" s="21" t="s">
         <v>667</v>
       </c>
       <c r="B25" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:2">
+      <c r="C25"/>
+    </row>
+    <row r="27" spans="1:3" ht="14.25">
       <c r="A27" s="21" t="s">
         <v>667</v>
       </c>
@@ -14573,15 +13886,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -14610,8 +13922,8 @@
     <col min="19" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="13.5"/>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="1" spans="1:143" customFormat="1" ht="13.5"/>
+    <row r="2" spans="1:143" ht="14.25">
       <c r="A2" s="13" t="s">
         <v>53</v>
       </c>
@@ -14619,12 +13931,12 @@
         <v>567</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:143">
       <c r="B3" s="14" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="4" spans="2:45">
+    <row r="4" spans="1:143">
       <c r="B4" s="15" t="s">
         <v>56</v>
       </c>
@@ -14758,7 +14070,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="1" ht="13.5" spans="1:143">
+    <row r="5" spans="1:143" ht="13.5">
       <c r="A5" s="17"/>
       <c r="B5" s="18" t="s">
         <v>291</v>
@@ -14991,7 +14303,7 @@
       <c r="EL5" s="17"/>
       <c r="EM5" s="17"/>
     </row>
-    <row r="6" spans="2:45">
+    <row r="6" spans="1:143">
       <c r="B6" s="18">
         <v>16</v>
       </c>
@@ -15125,7 +14437,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:45">
+    <row r="7" spans="1:143">
       <c r="B7" s="18">
         <v>18</v>
       </c>
@@ -15259,7 +14571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:45">
+    <row r="8" spans="1:143">
       <c r="B8" s="18">
         <v>39</v>
       </c>
@@ -15393,7 +14705,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:45">
+    <row r="9" spans="1:143">
       <c r="B9" s="18">
         <v>40</v>
       </c>
@@ -15527,7 +14839,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="2:45">
+    <row r="10" spans="1:143">
       <c r="B10" s="18">
         <v>41</v>
       </c>
@@ -15661,7 +14973,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:45">
+    <row r="11" spans="1:143">
       <c r="B11" s="18">
         <v>56</v>
       </c>
@@ -15795,7 +15107,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="2:45">
+    <row r="12" spans="1:143">
       <c r="B12" s="18">
         <v>62</v>
       </c>
@@ -15929,7 +15241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:2">
+    <row r="19" spans="1:143" ht="14.25">
       <c r="A19" s="13" t="s">
         <v>53</v>
       </c>
@@ -15937,12 +15249,12 @@
         <v>612</v>
       </c>
     </row>
-    <row r="20" s="12" customFormat="1" spans="2:2">
+    <row r="20" spans="1:143">
       <c r="B20" s="14" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="21" s="12" customFormat="1" spans="2:67">
+    <row r="21" spans="1:143">
       <c r="B21" s="15" t="s">
         <v>56</v>
       </c>
@@ -16142,7 +15454,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="22" ht="13.5" spans="1:143">
+    <row r="22" spans="1:143" ht="13.5">
       <c r="A22" s="17"/>
       <c r="B22" s="18" t="s">
         <v>211</v>
@@ -16419,7 +15731,7 @@
       <c r="EL22" s="17"/>
       <c r="EM22" s="17"/>
     </row>
-    <row r="23" spans="2:67">
+    <row r="23" spans="1:143">
       <c r="B23" s="18">
         <v>6</v>
       </c>
@@ -16619,7 +15931,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:67">
+    <row r="24" spans="1:143">
       <c r="B24" s="18">
         <v>7</v>
       </c>
@@ -16819,7 +16131,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="2:67">
+    <row r="25" spans="1:143">
       <c r="B25" s="18">
         <v>8</v>
       </c>
@@ -17019,7 +16331,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="2:67">
+    <row r="26" spans="1:143">
       <c r="B26" s="18">
         <v>9</v>
       </c>
@@ -17219,7 +16531,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="2:67">
+    <row r="27" spans="1:143">
       <c r="B27" s="18">
         <v>10</v>
       </c>
@@ -17419,7 +16731,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="2:67">
+    <row r="28" spans="1:143">
       <c r="B28" s="18">
         <v>11</v>
       </c>
@@ -17619,7 +16931,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="2:67">
+    <row r="29" spans="1:143">
       <c r="B29" s="18">
         <v>12</v>
       </c>
@@ -17820,13 +17132,14 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <conditionalFormatting sqref="B5:AS10 B11:J12 V11:AS12">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:U12">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17835,15 +17148,13 @@
       <formula>"NULL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:CC70"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -17860,11 +17171,11 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:12">
+    <row r="2" spans="1:81">
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="4" spans="2:81">
+    <row r="4" spans="1:81">
       <c r="B4" s="3" t="s">
         <v>689</v>
       </c>
@@ -17895,7 +17206,7 @@
       <c r="CB4" s="9"/>
       <c r="CC4" s="9"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:81">
+    <row r="5" spans="1:81">
       <c r="B5" s="8" t="s">
         <v>694</v>
       </c>
@@ -17980,7 +17291,7 @@
       <c r="CB5" s="9"/>
       <c r="CC5" s="9"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:81">
+    <row r="6" spans="1:81">
       <c r="B6" s="8" t="s">
         <v>699</v>
       </c>
@@ -18056,7 +17367,7 @@
       <c r="CB6" s="9"/>
       <c r="CC6" s="9"/>
     </row>
-    <row r="7" spans="2:81">
+    <row r="7" spans="1:81">
       <c r="B7" s="8" t="s">
         <v>700</v>
       </c>
@@ -18129,7 +17440,7 @@
       <c r="CB7" s="9"/>
       <c r="CC7" s="9"/>
     </row>
-    <row r="8" spans="2:81">
+    <row r="8" spans="1:81">
       <c r="B8" s="8" t="s">
         <v>701</v>
       </c>
@@ -18202,7 +17513,7 @@
       <c r="CB8" s="9"/>
       <c r="CC8" s="9"/>
     </row>
-    <row r="9" spans="2:81">
+    <row r="9" spans="1:81">
       <c r="B9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -18342,7 +17653,7 @@
       <c r="CB10" s="9"/>
       <c r="CC10" s="9"/>
     </row>
-    <row r="11" spans="1:73">
+    <row r="11" spans="1:81">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="G11" s="9"/>
@@ -18404,7 +17715,7 @@
       <c r="BT11" s="9"/>
       <c r="BU11" s="9"/>
     </row>
-    <row r="12" spans="1:73">
+    <row r="12" spans="1:81">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="G12" s="9"/>
@@ -18466,7 +17777,7 @@
       <c r="BT12" s="9"/>
       <c r="BU12" s="9"/>
     </row>
-    <row r="13" spans="1:73">
+    <row r="13" spans="1:81">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="G13" s="9"/>
@@ -18523,7 +17834,7 @@
       <c r="BT13" s="9"/>
       <c r="BU13" s="9"/>
     </row>
-    <row r="14" spans="1:73">
+    <row r="14" spans="1:81">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -18584,7 +17895,7 @@
       <c r="BT14" s="9"/>
       <c r="BU14" s="9"/>
     </row>
-    <row r="15" spans="1:73">
+    <row r="15" spans="1:81">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -18645,7 +17956,7 @@
       <c r="BT15" s="9"/>
       <c r="BU15" s="9"/>
     </row>
-    <row r="16" spans="1:73">
+    <row r="16" spans="1:81">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -18771,7 +18082,7 @@
       <c r="BT17" s="9"/>
       <c r="BU17" s="9"/>
     </row>
-    <row r="18" spans="5:15">
+    <row r="18" spans="1:73">
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -18782,7 +18093,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="5:15">
+    <row r="19" spans="1:73">
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -18793,7 +18104,7 @@
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="5:15">
+    <row r="20" spans="1:73">
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -18804,7 +18115,7 @@
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="5:15">
+    <row r="21" spans="1:73">
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -18815,7 +18126,7 @@
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="5:24">
+    <row r="22" spans="1:73">
       <c r="E22" s="9"/>
       <c r="G22" s="9"/>
       <c r="I22" s="9"/>
@@ -18832,7 +18143,7 @@
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
     </row>
-    <row r="23" spans="5:24">
+    <row r="23" spans="1:73">
       <c r="E23" s="9"/>
       <c r="G23" s="9"/>
       <c r="I23" s="9"/>
@@ -18849,7 +18160,7 @@
       <c r="W23" s="9"/>
       <c r="X23" s="9"/>
     </row>
-    <row r="24" spans="5:24">
+    <row r="24" spans="1:73">
       <c r="E24" s="9"/>
       <c r="G24" s="9"/>
       <c r="I24" s="9"/>
@@ -18866,7 +18177,7 @@
       <c r="W24" s="9"/>
       <c r="X24" s="9"/>
     </row>
-    <row r="25" spans="5:24">
+    <row r="25" spans="1:73">
       <c r="E25" s="9"/>
       <c r="G25" s="9"/>
       <c r="I25" s="9"/>
@@ -18878,7 +18189,7 @@
       <c r="W25" s="9"/>
       <c r="X25" s="9"/>
     </row>
-    <row r="26" spans="5:24">
+    <row r="26" spans="1:73">
       <c r="E26" s="9"/>
       <c r="G26" s="9"/>
       <c r="I26" s="9"/>
@@ -18890,7 +18201,7 @@
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
     </row>
-    <row r="27" spans="7:24">
+    <row r="27" spans="1:73">
       <c r="G27" s="9"/>
       <c r="I27" s="10"/>
       <c r="J27" s="9"/>
@@ -18902,7 +18213,7 @@
       <c r="W27" s="9"/>
       <c r="X27" s="9"/>
     </row>
-    <row r="28" spans="7:24">
+    <row r="28" spans="1:73">
       <c r="G28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -18914,7 +18225,7 @@
       <c r="W28" s="9"/>
       <c r="X28" s="9"/>
     </row>
-    <row r="29" spans="7:24">
+    <row r="29" spans="1:73">
       <c r="G29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -18926,35 +18237,35 @@
       <c r="W29" s="9"/>
       <c r="X29" s="9"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="1:73">
       <c r="B30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="1:73">
       <c r="B31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="9:17">
+    <row r="32" spans="1:73">
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
     </row>
-    <row r="33" spans="9:17">
+    <row r="33" spans="9:19">
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
     </row>
-    <row r="34" spans="9:17">
+    <row r="34" spans="9:19">
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
     </row>
-    <row r="35" spans="9:17">
+    <row r="35" spans="9:19">
       <c r="I35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
@@ -19015,98 +18326,98 @@
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
     </row>
-    <row r="41" spans="14:19">
+    <row r="41" spans="9:19">
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
       <c r="S41" s="9"/>
     </row>
-    <row r="42" spans="14:19">
+    <row r="42" spans="9:19">
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
       <c r="S42" s="9"/>
     </row>
-    <row r="43" spans="14:19">
+    <row r="43" spans="9:19">
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
       <c r="S43" s="9"/>
     </row>
-    <row r="44" spans="14:19">
+    <row r="44" spans="9:19">
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
       <c r="S44" s="9"/>
     </row>
-    <row r="45" spans="14:19">
+    <row r="45" spans="9:19">
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
       <c r="S45" s="9"/>
     </row>
-    <row r="46" spans="14:19">
+    <row r="46" spans="9:19">
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
       <c r="S46" s="9"/>
     </row>
-    <row r="47" spans="14:19">
+    <row r="47" spans="9:19">
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
       <c r="S47" s="9"/>
     </row>
-    <row r="48" spans="14:19">
+    <row r="48" spans="9:19">
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
       <c r="S48" s="9"/>
     </row>
-    <row r="53" spans="15:19">
+    <row r="53" spans="9:19">
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
       <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
       <c r="S53" s="9"/>
     </row>
-    <row r="54" spans="15:19">
+    <row r="54" spans="9:19">
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
       <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
       <c r="S54" s="9"/>
     </row>
-    <row r="55" spans="15:19">
+    <row r="55" spans="9:19">
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
     </row>
-    <row r="56" spans="15:19">
+    <row r="56" spans="9:19">
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
       <c r="S56" s="9"/>
     </row>
-    <row r="57" spans="15:19">
+    <row r="57" spans="9:19">
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
     </row>
-    <row r="58" spans="15:19">
+    <row r="58" spans="9:19">
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="9"/>
@@ -19134,24 +18445,24 @@
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
     </row>
-    <row r="61" spans="9:12">
+    <row r="61" spans="9:19">
       <c r="I61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="9:12">
+    <row r="62" spans="9:19">
       <c r="I62" s="9"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="9:14">
+    <row r="63" spans="9:19">
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="14:14">
+    <row r="64" spans="9:19">
       <c r="N64" s="9"/>
     </row>
     <row r="65" spans="14:14">
@@ -19173,8 +18484,8 @@
       <c r="N70" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>